--- a/datastatic/datasets/online/D_Intential_homocides_Worldbank_2012.xlsx
+++ b/datastatic/datasets/online/D_Intential_homocides_Worldbank_2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Intential_homocides_Worldbank_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Intential_homocides_Worldbank" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D_Intential_homocides_Worldbank_2012.xlsx
+++ b/datastatic/datasets/online/D_Intential_homocides_Worldbank_2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Intential_homocides_Worldbank_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Intential_homocides_Worldbank" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -67,7 +67,7 @@
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t>Mord wird oft als das schlimmste aller Verbrechen angesehen, er bedeutet den Verlust eines Menschenlebens und führt zu einer ängstlichen und unsicheren Stimmung. Neben der getöteten Person sind auch viele sekundäre Opfer betroffen, wie Familien oder Gemeinden. Gründe für gesetzeswidrigen Tötungen können häuslichen Auseinandersetzungen, zwischenmenschliche Gewalt, Gewaltkonflikten über Landressourcen, Gewalt unter Gangs über Revier oder Kontrolle, Raubgewalt und Tötung durch bewaffnete Gruppen sein. Der Indikator beruht auf Schätzungen von gesetzeswiedriger Tötung. Überwiegend ausgenommen sind große organisierte Tötungen im Rahmen von bewaffneten Konflikten und bei einer Truppengröße von bis zu mehreren hundert  Personen.</t>
+    <t>Mord wird oft als das schlimmste aller Verbrechen angesehen, er bedeutet den Verlust eines Menschenlebens und führt zu einer ängstlichen und unsicheren Stimmung. Neben der getöteten Person sind auch viele sekundäre Opfer betroffen, wie Familien oder Gemeinden. Gründe für gesetzeswidrigen Tötungen können häuslichen Auseinandersetzungen, zwischenmenschliche Gewalt, Gewaltkonflikte über Landressourcen, Gewalt unter Gangs über Revier oder Kontrolle, Raubgewalt und Tötung durch bewaffnete Gruppen sein. Der Indikator beruht auf Schätzungen von gesetzeswiedriger Tötung. Überwiegend ausgenommen sind große organisierte Tötungen im Rahmen von bewaffneten Konflikten und bei einer Truppengröße von bis zu mehreren hundert  Personen.</t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>
